--- a/cdte3_command_deck.xlsx
+++ b/cdte3_command_deck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi4-commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A386A0-99FD-D54A-8820-45724F6486AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA09E0-B153-2442-98CF-497A809CC723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="144">
   <si>
     <t>R=1/W=0</t>
   </si>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>0x060b0328</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>0x022b0314</t>
+  </si>
+  <si>
+    <t>read MACRO for event data in ring buffer from canister (see Formatter implementation)</t>
+  </si>
+  <si>
+    <t>read_can3_events</t>
   </si>
 </sst>
 </file>
@@ -925,13 +937,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F008E-2DBD-E446-BC2F-AA0D9FF4122A}">
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z24" sqref="Z24:Z31"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E18" si="0">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C3,7) + BIN2DEC($D3)))</f>
+        <f t="shared" ref="E3:E19" si="0">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C3,7) + BIN2DEC($D3)))</f>
         <v>0x80</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1369,7 +1381,7 @@
         <v>100000</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f t="shared" ref="E6:E17" si="1">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C6,7) + BIN2DEC($D6)))</f>
+        <f t="shared" ref="E6:E18" si="1">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C6,7) + BIN2DEC($D6)))</f>
         <v>0xA0</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1403,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="6">
         <v>0</v>
       </c>
       <c r="R6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="6">
         <v>0</v>
@@ -1493,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="6">
         <v>0</v>
       </c>
       <c r="R7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
@@ -1583,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <v>0</v>
       </c>
       <c r="R8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -1673,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="6">
         <v>0</v>
       </c>
       <c r="R9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
@@ -1763,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="6">
         <v>0</v>
@@ -1853,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="6">
         <v>0</v>
@@ -1943,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
       </c>
       <c r="R12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="6">
         <v>0</v>
@@ -2033,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="6">
         <v>0</v>
       </c>
       <c r="R13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
@@ -2123,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
       </c>
       <c r="R14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
@@ -2213,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="6">
         <v>0</v>
@@ -2303,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
       <c r="R16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="6">
         <v>0</v>
@@ -2393,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="6">
         <v>0</v>
       </c>
       <c r="R17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="6">
         <v>0</v>
@@ -2436,8 +2448,8 @@
       </c>
     </row>
     <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
+      <c r="A18" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>54</v>
@@ -2446,206 +2458,206 @@
         <v>1</v>
       </c>
       <c r="D18" s="10">
+        <v>1110</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x8E</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
         <v>1111</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0x8F</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6">
-        <v>1</v>
-      </c>
-      <c r="S18" s="6">
-        <v>1</v>
-      </c>
-      <c r="T18" s="6">
-        <v>1</v>
-      </c>
-      <c r="U18" s="6">
-        <v>1</v>
-      </c>
-      <c r="V18" s="6">
-        <v>1</v>
-      </c>
-      <c r="W18" s="16">
-        <v>1</v>
-      </c>
-      <c r="X18" s="13" t="s">
+      <c r="K19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+      <c r="W19" s="16">
+        <v>1</v>
+      </c>
+      <c r="X19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Y19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="Z19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="24"/>
-    </row>
-    <row r="20" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" ref="E20:E35" si="2">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C20,7) + BIN2DEC($D20)))</f>
-        <v>0x40</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
-        <v>0</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>59</v>
-      </c>
+    <row r="20" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="24"/>
     </row>
     <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>54</v>
@@ -2654,11 +2666,11 @@
         <v>0</v>
       </c>
       <c r="D21" s="10">
-        <v>1000010</v>
+        <v>1000000</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x42</v>
+        <f t="shared" ref="E21:E36" si="2">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C21,7) + BIN2DEC($D21)))</f>
+        <v>0x40</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>38</v>
@@ -2730,12 +2742,12 @@
         <v>68</v>
       </c>
       <c r="AC21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>54</v>
@@ -2744,17 +2756,17 @@
         <v>0</v>
       </c>
       <c r="D22" s="10">
-        <v>1000100</v>
+        <v>1000010</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x44</v>
+        <v>0x42</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -2769,10 +2781,10 @@
         <v>41</v>
       </c>
       <c r="L22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="6">
         <v>0</v>
@@ -2820,12 +2832,12 @@
         <v>68</v>
       </c>
       <c r="AC22" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>54</v>
@@ -2834,11 +2846,11 @@
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>1000101</v>
+        <v>1000100</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x45</v>
+        <v>0x44</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
@@ -2914,8 +2926,8 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>113</v>
+      <c r="A24" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>54</v>
@@ -2924,11 +2936,11 @@
         <v>0</v>
       </c>
       <c r="D24" s="10">
-        <v>10000</v>
+        <v>1000101</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x10</v>
+        <v>0x45</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
@@ -2949,7 +2961,7 @@
         <v>41</v>
       </c>
       <c r="L24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
@@ -2961,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -2991,21 +3003,21 @@
         <v>73</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AA24" s="23" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s">
         <v>68</v>
       </c>
       <c r="AC24" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>54</v>
@@ -3014,11 +3026,11 @@
         <v>0</v>
       </c>
       <c r="D25" s="10">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x11</v>
+        <v>0x10</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>17</v>
@@ -3051,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="6">
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="6">
         <v>0</v>
@@ -3084,18 +3096,18 @@
         <v>128</v>
       </c>
       <c r="AA25" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s">
         <v>68</v>
       </c>
       <c r="AC25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>54</v>
@@ -3104,11 +3116,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="10">
-        <v>10010</v>
+        <v>10001</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x12</v>
+        <v>0x11</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>17</v>
@@ -3141,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="6">
         <v>0</v>
@@ -3174,18 +3186,18 @@
         <v>128</v>
       </c>
       <c r="AA26" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s">
         <v>68</v>
       </c>
       <c r="AC26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>54</v>
@@ -3194,11 +3206,11 @@
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x13</v>
+        <v>0x12</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>17</v>
@@ -3231,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="6">
         <v>0</v>
@@ -3264,18 +3276,18 @@
         <v>128</v>
       </c>
       <c r="AA27" s="23" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s">
         <v>68</v>
       </c>
       <c r="AC27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>54</v>
@@ -3284,11 +3296,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="10">
-        <v>10100</v>
+        <v>10011</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x14</v>
+        <v>0x13</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>17</v>
@@ -3321,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="6">
         <v>0</v>
@@ -3354,18 +3366,18 @@
         <v>128</v>
       </c>
       <c r="AA28" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB28" t="s">
         <v>68</v>
       </c>
       <c r="AC28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>54</v>
@@ -3374,11 +3386,11 @@
         <v>0</v>
       </c>
       <c r="D29" s="10">
-        <v>10101</v>
+        <v>10100</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x15</v>
+        <v>0x14</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -3411,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="6">
         <v>0</v>
@@ -3444,18 +3456,18 @@
         <v>128</v>
       </c>
       <c r="AA29" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB29" t="s">
         <v>68</v>
       </c>
       <c r="AC29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>54</v>
@@ -3464,11 +3476,11 @@
         <v>0</v>
       </c>
       <c r="D30" s="10">
-        <v>10110</v>
+        <v>10101</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x16</v>
+        <v>0x15</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>17</v>
@@ -3501,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="6">
         <v>0</v>
@@ -3534,7 +3546,7 @@
         <v>128</v>
       </c>
       <c r="AA30" s="23" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AB30" t="s">
         <v>68</v>
@@ -3545,7 +3557,7 @@
     </row>
     <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>54</v>
@@ -3554,10 +3566,11 @@
         <v>0</v>
       </c>
       <c r="D31" s="10">
-        <v>100001</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>99</v>
+        <v>10110</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>0x16</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>17</v>
@@ -3568,13 +3581,13 @@
       <c r="H31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="23" t="s">
         <v>41</v>
       </c>
       <c r="L31" s="6">
@@ -3590,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="6">
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="6">
         <v>0</v>
@@ -3610,31 +3623,31 @@
       <c r="V31" s="6">
         <v>0</v>
       </c>
-      <c r="W31" s="6">
-        <v>0</v>
-      </c>
-      <c r="X31" t="s">
+      <c r="W31" s="16">
+        <v>0</v>
+      </c>
+      <c r="X31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Y31" s="22" t="s">
         <v>73</v>
       </c>
       <c r="Z31" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AA31" s="3" t="s">
-        <v>78</v>
+      <c r="AA31" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="AB31" t="s">
         <v>68</v>
       </c>
       <c r="AC31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
+      <c r="A32" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>54</v>
@@ -3643,11 +3656,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="10">
-        <v>1110000</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x70</v>
+        <v>100001</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>17</v>
@@ -3658,20 +3670,20 @@
       <c r="H32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="L32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="6">
         <v>0</v>
@@ -3680,51 +3692,51 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="6">
         <v>1</v>
       </c>
       <c r="S32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="6">
-        <v>1</v>
-      </c>
-      <c r="W32" s="16">
-        <v>1</v>
-      </c>
-      <c r="X32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
         <v>67</v>
       </c>
-      <c r="Y32" s="22" t="s">
+      <c r="Y32" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA32" s="23" t="s">
-        <v>41</v>
+        <v>128</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="AB32" t="s">
         <v>68</v>
       </c>
       <c r="AC32" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>54</v>
@@ -3733,11 +3745,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="10">
-        <v>1110001</v>
+        <v>1110000</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x71</v>
+        <v>0x70</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>17</v>
@@ -3809,12 +3821,12 @@
         <v>68</v>
       </c>
       <c r="AC33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>54</v>
@@ -3823,11 +3835,11 @@
         <v>0</v>
       </c>
       <c r="D34" s="10">
-        <v>1110010</v>
+        <v>1110001</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x72</v>
+        <v>0x71</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>17</v>
@@ -3899,12 +3911,12 @@
         <v>68</v>
       </c>
       <c r="AC34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>54</v>
@@ -3913,11 +3925,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="10">
-        <v>1110011</v>
+        <v>1110010</v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x73</v>
+        <v>0x72</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>17</v>
@@ -3989,12 +4001,12 @@
         <v>68</v>
       </c>
       <c r="AC35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>54</v>
@@ -4003,11 +4015,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="10">
-        <v>1110100</v>
+        <v>1110011</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" ref="E36:E37" si="3">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C36,7) + BIN2DEC($D36)))</f>
-        <v>0x74</v>
+        <f t="shared" si="2"/>
+        <v>0x73</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>17</v>
@@ -4079,12 +4091,12 @@
         <v>68</v>
       </c>
       <c r="AC36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>54</v>
@@ -4093,82 +4105,172 @@
         <v>0</v>
       </c>
       <c r="D37" s="10">
+        <v>1110100</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" ref="E37:E38" si="3">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C37,7) + BIN2DEC($D37)))</f>
+        <v>0x74</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>1</v>
+      </c>
+      <c r="R37" s="6">
+        <v>1</v>
+      </c>
+      <c r="S37" s="6">
+        <v>1</v>
+      </c>
+      <c r="T37" s="6">
+        <v>1</v>
+      </c>
+      <c r="U37" s="6">
+        <v>1</v>
+      </c>
+      <c r="V37" s="6">
+        <v>1</v>
+      </c>
+      <c r="W37" s="16">
+        <v>1</v>
+      </c>
+      <c r="X37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y37" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA37" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
         <v>1111000</v>
       </c>
-      <c r="E37" s="3" t="str">
+      <c r="E38" s="3" t="str">
         <f t="shared" si="3"/>
         <v>0x78</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1</v>
-      </c>
-      <c r="M37" s="6">
-        <v>1</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>1</v>
-      </c>
-      <c r="R37" s="6">
-        <v>1</v>
-      </c>
-      <c r="S37" s="6">
-        <v>1</v>
-      </c>
-      <c r="T37" s="6">
-        <v>1</v>
-      </c>
-      <c r="U37" s="6">
-        <v>1</v>
-      </c>
-      <c r="V37" s="6">
-        <v>1</v>
-      </c>
-      <c r="W37" s="16">
-        <v>1</v>
-      </c>
-      <c r="X37" s="13" t="s">
+      <c r="F38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="6">
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>1</v>
+      </c>
+      <c r="R38" s="6">
+        <v>1</v>
+      </c>
+      <c r="S38" s="6">
+        <v>1</v>
+      </c>
+      <c r="T38" s="6">
+        <v>1</v>
+      </c>
+      <c r="U38" s="6">
+        <v>1</v>
+      </c>
+      <c r="V38" s="6">
+        <v>1</v>
+      </c>
+      <c r="W38" s="16">
+        <v>1</v>
+      </c>
+      <c r="X38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Y37" s="22" t="s">
+      <c r="Y38" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA37" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s">
+      <c r="Z38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA38" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s">
         <v>68</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AC38" t="s">
         <v>66</v>
       </c>
     </row>
